--- a/Experiments/Part1-Uniform-MajorMinor/Peer-like-similarity/Uniform Results/Graphs.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Peer-like-similarity/Uniform Results/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="1340" windowWidth="29880" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2874,20 +2874,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124129560"/>
-        <c:axId val="-2123854184"/>
+        <c:axId val="2105349048"/>
+        <c:axId val="2105164952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124129560"/>
+        <c:axId val="2105349048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123854184"/>
+        <c:crossAx val="2105164952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2895,18 +2914,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123854184"/>
+        <c:axId val="2105164952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124129560"/>
+        <c:crossAx val="2105349048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5638,20 +5676,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2108109800"/>
-        <c:axId val="-2108112008"/>
+        <c:axId val="2102489352"/>
+        <c:axId val="2105505192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108109800"/>
+        <c:axId val="2102489352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108112008"/>
+        <c:crossAx val="2105505192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5659,18 +5716,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108112008"/>
+        <c:axId val="2105505192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payaoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108109800"/>
+        <c:crossAx val="2102489352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6258,20 +6334,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125616440"/>
-        <c:axId val="-2113486712"/>
+        <c:axId val="2101814088"/>
+        <c:axId val="2105168552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125616440"/>
+        <c:axId val="2101814088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113486712"/>
+        <c:crossAx val="2105168552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6279,18 +6374,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113486712"/>
+        <c:axId val="2105168552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125616440"/>
+        <c:crossAx val="2101814088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6412,23 +6526,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6436,15 +6550,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6772,7 +6886,7 @@
   <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AE1:AF1048576"/>
+      <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
